--- a/Flowrate Data/Data.xlsx
+++ b/Flowrate Data/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/LowCostAirPumpCode/Flowrate Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4178,11 +4178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1480103536"/>
-        <c:axId val="-1480101760"/>
+        <c:axId val="-44070832"/>
+        <c:axId val="-44068352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1480103536"/>
+        <c:axId val="-44070832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4224,7 +4224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1480101760"/>
+        <c:crossAx val="-44068352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4232,7 +4232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1480101760"/>
+        <c:axId val="-44068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -4284,7 +4284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1480103536"/>
+        <c:crossAx val="-44070832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4365,7 +4365,2346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.64999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="141001184"/>
+        <c:axId val="141032128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141001184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141032128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141032128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141001184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4921,6 +7260,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4948,6 +7803,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141111</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5221,8 +8106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9623"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="W4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="42" workbookViewId="0">
+      <selection activeCell="I89" sqref="C1:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Flowrate Data/Data.xlsx
+++ b/Flowrate Data/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="642">
   <si>
     <t>'2016/10/27'</t>
   </si>
@@ -1950,6 +1950,9 @@
   </si>
   <si>
     <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Percent Error</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2022,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4178,11 +4182,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-44070832"/>
-        <c:axId val="-44068352"/>
+        <c:axId val="154313552"/>
+        <c:axId val="154315328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-44070832"/>
+        <c:axId val="154313552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4224,7 +4228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-44068352"/>
+        <c:crossAx val="154315328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4232,7 +4236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-44068352"/>
+        <c:axId val="154315328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -4284,7 +4288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-44070832"/>
+        <c:crossAx val="154313552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4412,7 +4416,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0361580745669128"/>
+          <c:y val="0.096614095886459"/>
+          <c:w val="0.957037477574646"/>
+          <c:h val="0.878627275924291"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -6478,11 +6492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="141001184"/>
-        <c:axId val="141032128"/>
+        <c:axId val="-360841856"/>
+        <c:axId val="-360840080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141001184"/>
+        <c:axId val="-360841856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,7 +6539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141032128"/>
+        <c:crossAx val="-360840080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6533,7 +6547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141032128"/>
+        <c:axId val="-360840080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6583,7 +6597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141001184"/>
+        <c:crossAx val="-360841856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6664,6 +6678,515 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.64999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.58999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.61000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.63999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.60000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="117899008"/>
+        <c:axId val="117901056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117899008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117901056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117901056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117899008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6705,6 +7228,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7776,6 +8339,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7810,16 +8889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32455</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>658812</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>111830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>141111</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>98778</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>418923</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>178153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7833,6 +8912,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>814458</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>168688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>780223</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>179455</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8106,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9623"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="42" workbookViewId="0">
-      <selection activeCell="I89" sqref="C1:I89"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90:I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13189,20 +14298,70 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="A90" t="s">
+        <v>641</v>
+      </c>
+      <c r="C90" s="3">
+        <f>(C91-0.6)/0.6</f>
+        <v>5.8052421348318379E-3</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" ref="D90:I90" si="15">(D91-0.6)/0.6</f>
+        <v>-9.3633801498090496E-4</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="15"/>
+        <v>-1.8726966292144839E-4</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="15"/>
+        <v>-5.618093632956771E-4</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.2472013108615352E-3</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="15"/>
+        <v>-5.4307243445683717E-3</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="15"/>
+        <v>5.0561752808993745E-3</v>
+      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>639</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="C91">
+        <f>AVERAGE(C1:C89)</f>
+        <v>0.60348314528089908</v>
+      </c>
+      <c r="D91">
+        <f>AVERAGE(D1:D89)</f>
+        <v>0.59943819719101143</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91:I91" si="16">AVERAGE(E1:E89)</f>
+        <v>0.59988763820224711</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="16"/>
+        <v>0.59966291438202257</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="16"/>
+        <v>0.59865167921348306</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="16"/>
+        <v>0.59674156539325895</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="16"/>
+        <v>0.6030337051685396</v>
+      </c>
       <c r="J91">
         <f>AVERAGE(J1:J89)</f>
         <v>1.0058052421348314</v>
@@ -13212,23 +14371,23 @@
         <v>0.99906366198501817</v>
       </c>
       <c r="L91">
-        <f t="shared" ref="L91:P91" si="15">AVERAGE(L1:L89)</f>
+        <f t="shared" ref="L91:P91" si="17">AVERAGE(L1:L89)</f>
         <v>0.99981273033707863</v>
       </c>
       <c r="M91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.9994381906367038</v>
       </c>
       <c r="N91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.99775279868913758</v>
       </c>
       <c r="O91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.9945692756554313</v>
       </c>
       <c r="P91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0050561752808986</v>
       </c>
     </row>
@@ -13236,9 +14395,34 @@
       <c r="A92" t="s">
         <v>640</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="C92">
+        <f>STDEVA(C1:C89)</f>
+        <v>2.1484729039368138E-2</v>
+      </c>
+      <c r="D92">
+        <f>STDEV(D1:D89)</f>
+        <v>1.6744041140457452E-2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92" si="18">STDEVA(E1:E89)</f>
+        <v>1.6888303160222558E-2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92" si="19">STDEV(F1:F89)</f>
+        <v>1.4651216681755086E-2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92" si="20">STDEVA(G1:G89)</f>
+        <v>1.5014475350351025E-2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ref="H92" si="21">STDEV(H1:H89)</f>
+        <v>1.3380398378849159E-2</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ref="I92" si="22">STDEVA(I1:I89)</f>
+        <v>1.8488608695814073E-2</v>
+      </c>
       <c r="J92">
         <f>STDEVA(J1:J89)</f>
         <v>3.5807881732280215E-2</v>
@@ -13246,6 +14430,26 @@
       <c r="K92">
         <f>STDEV(K1:K89)</f>
         <v>2.7906735234095776E-2</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ref="L92" si="23">STDEVA(L1:L89)</f>
+        <v>2.8147171933704272E-2</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ref="M92" si="24">STDEV(M1:M89)</f>
+        <v>2.4418694469591821E-2</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ref="N92" si="25">STDEVA(N1:N89)</f>
+        <v>2.5024125583918391E-2</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ref="O92" si="26">STDEV(O1:O89)</f>
+        <v>2.2300663964748637E-2</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ref="P92" si="27">STDEVA(P1:P89)</f>
+        <v>3.0814347826356801E-2</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
